--- a/samples/SA-عينة-المغاسل-وشركات-التنظيف-preview.xlsx
+++ b/samples/SA-عينة-المغاسل-وشركات-التنظيف-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="381">
   <si>
     <t>GoogleMaps Link</t>
   </si>
@@ -40,325 +40,28 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%BA%D8%B3%D9%8A%D9%84+%D8%A7%D9%84%D8%B0%D9%87%D8%A8%D9%8A+%D9%84%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49e94fcea57609:0x45393320d62d88c1!8m2!3d26.3055366!4d50.1912984!16s%2Fg%2F11fl7pgtjv!19sChIJCXalzk_pST4RwYgt1iAzOUU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%B1%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D9%85%D8%B1%D9%83%D8%B2%D9%8A+Pioneers+Laundry+Main+branch%E2%80%AD/data=!4m7!3m6!1s0x3e49c324d13b25c9:0x5e2cf427d8addea9!8m2!3d26.2518593!4d50.197638!16s%2Fg%2F11v4514rhb!19sChIJySU70STDST4Rqd6t2Cf0LF4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%AC%D8%A8%D8%B1+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e49e86eb58ff839:0x1ca26a2772b2913!8m2!3d26.2949471!4d50.1983957!16s%2Fg%2F11c1r1l6w4!19sChIJOfiPtW7oST4REykrd6ImygE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%AF%D9%8A%D9%85+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49c3df1e323561:0x389736e37170a85!8m2!3d26.2670747!4d50.2086216!16s%2Fg%2F11t75kt36c!19sChIJYTUyHt_DST4RhQoXN25ziQM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%A3%D9%86%D9%88%D8%A7%D8%B1+%D8%A7%D9%84%D8%B9%D8%B5%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49e9d5fb894733:0xadcdfb226f3a5769!8m2!3d26.2962076!4d50.1918777!16s%2Fg%2F11fntb6ctf!19sChIJM0eJ-9XpST4RaVc6byL7za0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%B1%D9%88%D8%A7%D9%8A%D8%A9+%D9%86%D8%B8%D8%A7%D9%81%D8%A9+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e49dd00115e4db3:0xd0d7cf8a5f9ed39c!8m2!3d26.175728!4d50.1415704!16s%2Fg%2F11vr7xgx5g!19sChIJs01eEQDdST4RnNOeX4rP19A?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A3%D8%B6%D9%88%D8%A7%D8%A1+%D8%A7%D9%84%D8%AE%D8%B2%D8%A7%D9%85%D9%89%E2%80%AD/data=!4m7!3m6!1s0x3e49c3e7270dcbef:0xc568bb1611f15b77!8m2!3d26.2142427!4d50.188903!16s%2Fg%2F11thkw5ts4!19sChIJ78sNJ-fDST4Rd1vxERa7aMU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%B1%D9%87%D8%AF%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e49ef56ebb6cc93:0x6f570cfb61c382b!8m2!3d26.3502011!4d50.1947847!16s%2Fg%2F11p15tfyxd!19sChIJk8y261bvST4RKzgcts9w9QY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%AC%D8%A8%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e49ef459f4ae68b:0x5f4deefe6e964dfe!8m2!3d26.36476!4d50.202375!16s%2Fg%2F11c4520lp0!19sChIJi-ZKn0XvST4R_k2Wbv7uTV8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B0%D9%87%D9%88%D9%84+%D9%84%D8%BA%D8%B3%D9%8A%D9%84+%D8%A7%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e49e31a64e705ad:0xf868b6c5e7b73c75!8m2!3d26.3504035!4d50.0411505!16s%2Fg%2F11vrhtj_3c!19sChIJrQXnZBrjST4RdTy358W2aPg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D9%87+%D8%A7%D9%84%D9%88%D8%B1%D8%AF+%D8%A7%D9%84%D8%A7%D8%B2%D8%B1%D9%82+%D9%81%D8%B1%D8%B9+2%E2%80%AD/data=!4m7!3m6!1s0x3e49db007b6cc7cd:0xb51c77da3eb2a6a2!8m2!3d26.1667608!4d50.1452632!16s%2Fg%2F11vpps86dx!19sChIJzcdsewDbST4RoqayPtp3HLU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D9%86%D8%A7%D8%B5%D8%B9+%7C+NASEA+LAUNDRY%E2%80%AD/data=!4m7!3m6!1s0x3e49dd16d6e450e7:0x54fea6c0d8f03c4!8m2!3d26.1752147!4d50.1457139!16s%2Fg%2F11pyc1dd8_!19sChIJ51Dk1hbdST4RxAOPDWzqTwU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D9%85%D9%87%D8%B1%D8%A9+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49db24bd71fa3b:0x7d7e406338865177!8m2!3d26.1541806!4d50.1464187!16s%2Fg%2F11h75pcvx0!19sChIJO_pxvSTbST4Rd1GGOGNAfn0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%AE%D9%8A%D8%A7%D9%84+%D8%A7%D9%84%D8%B3%D8%B1%D9%8A%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49e98b600e62bb:0x74bc5ef5a043df50!8m2!3d26.2985047!4d50.1974535!16s%2Fg%2F11vb3hknby!19sChIJu2IOYIvpST4RUN9DoPVevHQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%B3%D9%85%D8%A7+%D8%AC%D9%88%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e49e9869fceaa0d:0x3dfe563714d0fef0!8m2!3d26.2931475!4d50.1950199!16s%2Fg%2F11mtmm_6fw!19sChIJDarOn4bpST4R8P7QFDdW_j0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%AC%D9%86%D9%89%E2%80%AD/data=!4m7!3m6!1s0x3e49e86ce00c5043:0x888381fd9b12da2!8m2!3d26.2894032!4d50.1961892!16s%2Fg%2F11hb2sw_2d!19sChIJQ1AM4GzoST4Roi2x2R84iAg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%B3%D9%86%D8%AF%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e49e8718a95cd8d:0x126376743577ff4a!8m2!3d26.2918026!4d50.1921702!16s%2Fg%2F11f2dqjl8j!19sChIJjc2VinHoST4RSv93NXR2YxI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%B1%D9%87%D8%AF%D9%86%E2%80%8E%E2%80%AD/data=!4m7!3m6!1s0x3e49e961b5d4e2f7:0x5b90c9181aef986b!8m2!3d26.2951875!4d50.2015625!16s%2Fg%2F11q4g6_gtj!19sChIJ9-LUtWHpST4Ra5jvGhjJkFs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Right+Choice+Laundry/data=!4m7!3m6!1s0x3e49e814f27f4e3d:0xcb31992ebcfff33d!8m2!3d26.287551!4d50.2001166!16s%2Fg%2F11fzwrdbk4!19sChIJPU5_8hToST4RPfP_vC6ZMcs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%A7%D9%84%D9%86%D8%B8%D9%8A%D9%81%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49e86bde26c22d:0x6a51b88b3b3872e0!8m2!3d26.2941246!4d50.1999959!16s%2Fg%2F11g01_h1nn!19sChIJLcIm3mvoST4R4HI4O4u4UWo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B4%D8%A7%D9%87%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e49e841fe9b5d71:0xe88203b254dd4c90!8m2!3d26.2953865!4d50.2040497!16s%2Fg%2F11f2shv36_!19sChIJcV2b_kHoST4RkEzdVLIDgug?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Al+enayah+Laundry/data=!4m7!3m6!1s0x3e49e86be94556b9:0x5c8d0f2f1b5ddd68!8m2!3d26.2933481!4d50.1997184!16s%2Fg%2F11f_y5k7xh!19sChIJuVZF6WvoST4RaN1dGy8PjVw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D9%87+%D8%AA%D8%A7%D9%88%D9%86+%D9%88%D8%A7%D9%86+%D9%84%D8%BA%D8%B3%D9%8A%D9%84+%D8%A7%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D9%88%D8%A8%D8%B7%D8%A7%D9%86%D9%8A%D8%A7%D8%AA+%D9%88%D8%B3%D8%AC%D8%A7%D8%AF+%D9%85%D9%81%D8%B1%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e254fba15f93877:0xe4a669660fca2e5!8m2!3d24.1470532!4d47.2971669!16s%2Fg%2F11vqpbvdyf!19sChIJdzj5FbpPJT4R5aL8YJZmSg4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%B3%D8%A7%D8%B1%D9%8A%D8%A9+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e25458bca3c6c27:0x4ee533d306d92d2c!8m2!3d24.124368!4d47.2669872!16s%2Fg%2F11ry9cb10x!19sChIJJ2w8yotFJT4RLC3ZBtMz5U4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D9%88%D8%AA%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e254793b51339d7:0xb99353e2d83e476a!8m2!3d24.0991616!4d47.2623749!16s%2Fg%2F11vb52hkgx!19sChIJ1zkTtZNHJT4Rakc-2OJTk7k?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%B1%D9%87%D8%AF%D9%86%E2%80%8E%E2%80%AD/data=!4m7!3m6!1s0x3e254ec213a2739b:0xaf1c2ea92d0649e7!8m2!3d24.1561335!4d47.345211!16s%2Fg%2F11c51t1xq8!19sChIJm3OiE8JOJT4R50kGLakuHK8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%B3%D8%A7%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e254f126f00d40d:0xe47c600bd4f3ad13!8m2!3d24.1554784!4d47.3151356!16s%2Fg%2F11g6qtczc_!19sChIJDdQAbxJPJT4RE63z1AtgfOQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%AA%D8%A7%D9%88%D9%86+%D9%88%D8%A7%D9%86+%D9%84%D8%BA%D8%B3%D9%8A%D9%84+%D8%A7%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e254f0020c0b5b7:0x99c926ec5c2dee2!8m2!3d24.1469944!4d47.2971726!16s%2Fg%2F11ldc1cqrv!19sChIJt7XAIABPJT4R4t7CxW6SnAk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%AC%D9%88%D8%AF%D8%A9+%D8%A7%D9%84%D9%81%D8%A7%D8%A6%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2545632820ee13:0xffd44857ad3b5436!8m2!3d24.1169104!4d47.2742444!16s%2Fg%2F11f9dmlsmf!19sChIJE-4gKGNFJT4RNlQ7rVdI1P8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%EF%BB%B7%D8%B3%D8%B7%D9%88%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49ef5b6fe3f94b:0xd4b24698f33e31c4!8m2!3d26.3598767!4d50.1916395!16s%2Fg%2F11cs1xqwz2!19sChIJS_njb1vvST4RxDE-85hGstQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%B5%D9%81%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e49ef353d292e6d:0xff83e0af7f2f5a4!8m2!3d26.3644882!4d50.2018569!16s%2Fg%2F11h_tvjqk8!19sChIJbS4pPTXvST4RpPXy9wo--A8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D9%84%D9%85%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e254ffa89c37789:0xc69335e446a38e41!8m2!3d24.152302!4d47.3580343!16s%2Fg%2F11sntrvfl0!19sChIJiXfDifpPJT4RQY6jRuQ1k8Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%B9%D8%A7%D8%A8%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2545c7189e7933:0xf5835cc8fad9b3ee!8m2!3d24.1278977!4d47.266767!16s%2Fg%2F11ggghty_7!19sChIJM3meGMdFJT4R7rPZ-shcg_U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%A7%D8%B1%D8%A8%D8%B9%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e254ebfa9208b67:0xb737eb109e55442b!8m2!3d24.1576052!4d47.3531584!16s%2Fg%2F11c5559mn5!19sChIJZ4sgqb9OJT4RK0RVnhDrN7c?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%A7%D8%B6+%D8%A7%D9%84%D8%AF%D8%A7%D8%A6%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e254ff5f1b48357:0x98aa5874c61edaf5!8m2!3d24.1883445!4d47.3235686!16s%2Fg%2F11v3xnc9rm!19sChIJV4O08fVPJT4R9doexnRYqpg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D9%81%D9%8A%D8%B5%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2545477e1a2345:0x4f770b452e7cdecb!8m2!3d24.130896!4d47.2849357!16s%2Fg%2F11kblk7kgq!19sChIJRSMafkdFJT4Ry958LkULd08?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%AE%D8%A7%D9%84%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e254fec153fd527:0x3f5d8751ad8af0a!8m2!3d24.1523237!4d47.3179292!16s%2Fg%2F11tr_gx166!19sChIJJ9U_FexPJT4RCq_YGnXY9QM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D9%87+%D8%A7%D9%84%D8%AD%D8%B1%DB%8C%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e254f142883b751:0x636bd3cad5d27472!8m2!3d24.1493334!4d47.3262162!16s%2Fg%2F11rnk2xb07!19sChIJUbeDKBRPJT4RcnTS1crTa2M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%83%D9%86%D8%AF%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2545f9ce4246cd:0xa19b5b4999479b76!8m2!3d24.1803184!4d47.2845152!16s%2Fg%2F11sqhds5yv!19sChIJzUZCzvlFJT4RdptHmUlbm6E?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D9%86%D8%B8%D9%8A%D9%81+%D8%A7%D9%84%D8%B3%D8%A7%D8%B7%D8%B9%E2%80%AD/data=!4m7!3m6!1s0x3e254f4a8d61f545:0xa41c5393a47f1181!8m2!3d24.1450999!4d47.3585273!16s%2Fg%2F11v05wqkr4!19sChIJRfVhjUpPJT4RgRF_pJNTHKQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D9%84%D8%AD%D8%B8%D9%87+%D8%A7%D9%84%D9%84%D8%A7%D9%85%D8%B9%D8%A9+%D9%84%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D9%88%D8%A7%D9%84%D8%B3%D8%AC%D8%A7%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e25475c63fe755b:0xfb243e6af6f2169d!8m2!3d24.1050134!4d47.2741158!16s%2Fg%2F11g2wgxx9d!19sChIJW3X-Y1xHJT4RnRby9mo-JPs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D9%86%D8%B3%D9%8A%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x3e254f903dae9639:0x376cc8fa32897b7b!8m2!3d24.1664799!4d47.3133914!16s%2Fg%2F11j0bykrry!19sChIJOZauPZBPJT4Re3uJMvrIbDc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%AA%D9%86%D8%B8%D9%8A%D9%80,%D9%80%D9%81+%D8%A8%D8%A7%D9%84%D8%AE%D8%B1%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x3e254feca688cdff:0xfd12b231803e0c7a!8m2!3d24.1580625!4d47.3208125!16s%2Fg%2F11rsvdx5dc!19sChIJ_82IpuxPJT4Regw-gDGyEv0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%A7%D9%84%D9%85%D8%A7%D8%B3+%D8%A7%D9%84%D8%A8%D8%AE%D8%A7%D8%B1%D9%8A%D8%A9+%D9%85%D8%BA%D8%B3%D9%84%D9%87+%D9%85%D9%84%D8%A7%D8%A8%D8%B3+%D8%B3%D8%AC%D8%A7%D8%AF+%D8%A8%D8%AE%D8%A7%D8%B1+%D8%AA%D9%86%D8%B8%D9%8A%D9%81+%D8%A7%D9%84%D9%85%D9%84%D8%A7%D8%A8%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e25476c93bcfd8d:0xd84e907ded24fbab!8m2!3d24.1081287!4d47.286893!16s%2Fg%2F11l35ncf36!19sChIJjf28k2xHJT4Rq_sk7X2QTtg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A3%D9%84%D9%88%D8%A7%D9%86+%D8%A7%D9%84%D8%A2%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e254f5ec6a1f957:0xa6cfe55096169a19!8m2!3d24.1529498!4d47.3662112!16s%2Fg%2F11pv9fjx67!19sChIJV_mhxl5PJT4RGZoWllDlz6Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D9%85%D9%86%D8%B2%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e254f38fcce2093:0xbfc500f67e0a5a12!8m2!3d24.1600352!4d47.3287681!16s%2Fg%2F11f66gw8ds!19sChIJkyDO_DhPJT4REloKfvYAxb8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D9%85%D8%B1%D8%B3%D9%89+%D8%A7%D9%84%D8%BA%D8%B3%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e254fd138a744c3:0x89cd885d9f9896ef!8m2!3d24.1462629!4d47.3476467!16s%2Fg%2F11rsh8yfz1!19sChIJw0SnONFPJT4R75aYn12IzYk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%B1%D8%AA%D9%88%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e254f5b202f0a95:0xef67d67f0dc0eb2!8m2!3d24.1536543!4d47.3284486!16s%2Fg%2F11hyx9q42q!19sChIJlQovIFtPJT4Rsg7c8Gd99g4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%84%D8%B3%D8%AD%D8%A7%D8%A8%D8%A9+%D8%A7%D9%84%D9%85%D9%85%D8%B7%D8%B1%D8%A9+-+Sahaba+Mamthara+Laundry%E2%80%AD/data=!4m7!3m6!1s0x3e254500795492b5:0x1ebc0302dc49389f!8m2!3d24.1814239!4d47.2839625!16s%2Fg%2F11y2hk8b1h!19sChIJtZJUeQBFJT4RnzhJ3AIDvB4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%82%D9%88%D9%81%E2%80%AD/data=!4m7!3m6!1s0x3e254f000e4848f9:0x5e236af8911927b!8m2!3d24.1567561!4d47.3409374!16s%2Fg%2F11vpdms4gp!19sChIJ-UhIDgBPJT4Re5IRia824gU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mushrif/data=!4m7!3m6!1s0x3e254700127819d9:0xdf126a46c31691d2!8m2!3d24.112059!4d47.2828026!16s%2Fg%2F11ld5_33ww!19sChIJ2Rl4EgBHJT4R0pEWw0ZqEt8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+%D8%AA%D9%88%D8%A8+%D9%83%D9%84%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15ed252413d7232f:0x22eaed9860547e57!8m2!3d21.9197572!4d42.027697!16s%2Fg%2F11jfnw14jx!19sChIJLyPXEyQl7RURV35UYJjt6iI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D9%86%D9%82%D8%A7%D8%A1+%D8%A7%D9%84%D8%B3%D8%B1%D9%8A%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15ed2560efca24d5:0x340ad7645ae1f6c1!8m2!3d21.909442!4d42.030746!16s%2Fg%2F11f9g81m3n!19sChIJ1STK72Al7RURwfbhWmTXCjQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%AA%D9%86%D8%B8%D9%8A%D9%81+%D8%A8%D8%A7%D9%84%D8%AE%D9%81%D8%AC%D9%8A+%D9%87%D9%88%D8%B3%D9%88%D9%86+%D8%A7%D9%84%D8%AF%D9%88%D9%84%D9%8A%D8%A9+%D8%AA%D9%86%D8%B8%D9%8A%D9%81+%D9%85%D9%86%D8%A7%D8%B2%D9%84+%D8%AA%D9%86%D8%B8%D9%8A%D9%81+%D8%B4%D9%82%D9%82+%D8%AA%D9%86%D8%B8%D9%8A%D9%81+%D9%81%D9%84%D9%84+%D9%86%D8%B8%D8%A7%D9%81%D8%A9+%D8%AE%D8%B2%D8%A7%D9%86%D8%A7%D8%AA+%D8%BA%D8%B3%D9%8A%D9%84+%D9%83%D9%86%D8%A8+%D9%85%D9%88%D9%83%D9%8A%D8%AA+%D8%B3%D8%AC%D8%A7%D8%AF+%D8%AA%D9%86%D8%B8%D9%8A%D9%81+%D9%85%D8%AC%D8%A7%D9%84%D8%B3+%D8%A8%D8%A7%D9%84%D8%AE%D9%81%D8%AC%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3fcc1f02a7cb3c35:0xdf6835a594f86909!8m2!3d28.416311!4d48.477821!16s%2Fg%2F11t3m_73g9!19sChIJNTzLpwIfzD8RCWn4lKU1aN8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A7%D9%81%D8%B6%D9%84+%D8%AA%D9%86%D8%B8%D9%8A%D9%81%E2%80%AD/data=!4m7!3m6!1s0x1581ed7df375c8fb:0xa821b92ef1277519!8m2!3d26.0660626!4d43.9819443!16s%2Fg%2F11jyj7s0pb!19sChIJ-8h1833tgRURGXUn8S65Iag?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/M1+car+wash/data=!4m7!3m6!1s0x3e2f017ebc797deb:0x486c9e05d6784912!8m2!3d24.7715825!4d46.815315!16s%2Fg%2F11s3zvy5xr!19sChIJ6315vH4BLz4REkl41gWebEg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A8%D9%86%D8%AF%D8%B1+%D8%A8%D9%86+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2+%D8%A7%D9%84%D9%82%D8%AD%D8%B7%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f00fea4868c6b:0x30fab15d25588190!8m2!3d24.743248!4d46.7905109!16s%2Fg%2F11f5hlwfcd!19sChIJa4yGpP4ALz4RkIFYJV2x-jA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D8%A5%D8%B3%D9%83%D8%A7%D9%86+%D9%84%D9%84%D8%AA%D8%B3%D9%88%D9%82%E2%80%AD/data=!4m7!3m6!1s0x3e2fa0b21e8734df:0x8db347db00efee0b!8m2!3d24.5682776!4d46.8359043!16s%2Fg%2F11f114plgn!19sChIJ3zSHHrKgLz4RC-7vANtHs40?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f08ccfeaba365:0x8b004056e0516351!8m2!3d24.592708!4d46.7500803!16s%2Fg%2F11gf9fltng!19sChIJZaOr_swILz4RUWNR4FZAAIs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%88%D9%81+%D8%A7%D9%88%D9%86+OFF+ON%E2%80%AD/data=!4m7!3m6!1s0x3e2fabe88e324e05:0x21509f3a42900c38!8m2!3d24.7939375!4d46.8836875!16s%2Fg%2F11vjy2633k!19sChIJBU4yjuirLz4ROAyQQjqfUCE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%84%D9%85%D9%8A%D8%B9+%D8%BA%D8%A7%D8%B2%D9%8A+%D9%84%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2effdd60fff939:0xeb7105879561eca7!8m2!3d24.8377928!4d46.8223059!16s%2Fg%2F11tffldgp2!19sChIJOfn_YN3_Lj4Rp-xhlYcFces?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%B1%D8%B4%D8%A9+%D8%A7%D9%84%D9%85%D9%8A%D8%A7%D9%87+%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+%28+Water+Splash+%29%E2%80%AD/data=!4m7!3m6!1s0x3e2e55c8805e2f7b:0x9fe5b18f75d579d4!8m2!3d24.8465625!4d46.8296875!16s%2Fg%2F11thn921s6!19sChIJey9egMhVLj4R1HnVdY-x5Z8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D8%AC%D9%85%D9%84+%D9%84%D9%85%D8%B9%D8%A9+%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2eff918cbfaf57:0xbb7d8e68882ce91e!8m2!3d24.8373291!4d46.8090387!16s%2Fg%2F11sgv9fbq8!19sChIJV6-_jJH_Lj4RHuksiGiOfbs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A3%D8%AC%D9%85%D9%84+%D9%84%D9%85%D8%B9%D8%A9+%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+%D9%81%D8%B1%D8%B9+%D8%B7%D8%B1%D9%8A%D9%82+%D8%A7%D9%84%D8%AC%D9%86%D8%A7%D8%AF%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2e55e0a67d65c9:0x1bb008fabc1d44ed!8m2!3d24.8759667!4d46.845483!16s%2Fg%2F11sjrnwky3!19sChIJyWV9puBVLj4R7UQdvPoIsBs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D9%87+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+%D9%85%D8%AA%D9%86%D9%82%D9%84%D9%87+S.J%E2%80%AD/data=!4m7!3m6!1s0x3e2e5533acdd64fd:0x2f554c871f241087!8m2!3d24.8459842!4d46.8299877!16s%2Fg%2F11v19syx4t!19sChIJ_WTdrDNVLj4RhxAkH4dMVS8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D8%A4%D9%8A%D8%A7%D8%AA+%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2fab006385f35d:0x1996fac1fe7b7cb5!8m2!3d24.8048948!4d46.8852305!16s%2Fg%2F11vypfh8fg!19sChIJXfOFYwCrLz4RtXx7_sH6lhk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%B5%D9%8A%D8%B9%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2faac863d00003:0x18897fe39e1a3948!8m2!3d24.7971795!4d46.8468946!16s%2Fg%2F11g0jck6dg!19sChIJAwDQY8iqLz4RSDkanuN_iRg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D8%B7%D9%84%D9%82+%D8%BA%D8%B3%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2fabcd169c99e7:0x8ef207e8cc3299a7!8m2!3d24.7996875!4d46.8574375!16s%2Fg%2F11vryxvv3t!19sChIJ55mcFs2rLz4Rp5kyzOgH8o4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D9%85%D9%8A%D9%8A+%D9%83%D8%A7%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2fab2fa4528833:0x8e34bf7a227dac8d!8m2!3d24.7994752!4d46.857598!16s%2Fg%2F11rv72yg84!19sChIJM4hSpC-rLz4Rjax9Inq_NI4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%B1%D8%AF%D9%87%D8%A9+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A9+car+lobby%E2%80%AD/data=!4m7!3m6!1s0x3e2e557736fbe887:0xde71ac8d676bfe60!8m2!3d24.8388261!4d46.828819!16s%2Fg%2F11s434qb4j!19sChIJh-j7NndVLj4RYP5rZ42scd4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A3%D8%B3%D8%A7%D8%B3+%D8%A7%D9%84%D9%84%D9%85%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2effd7f9b015b3:0x153e243eb63bab06!8m2!3d24.8471653!4d46.8108254!16s%2Fg%2F11tcxmhsbb!19sChIJsxWw-df_Lj4RBqs7tj4kPhU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D9%87+%D8%A7%D9%84%D8%AA%D9%88%D8%AD%D9%8A%D8%AF+%D9%84%D8%BA%D8%B3%D9%8A%D9%84+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+%D8%AE%D8%AF%D9%85%D9%87+%D9%85%D8%AA%D9%86%D9%82%D9%84%D9%87+%D9%81%D9%8A+%D8%AC%D9%85%D9%8A%D8%B9+%D8%A7%D9%86%D8%AD%D8%A7%D8%A1+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x3e2f056d856c2c99:0xdc4cb39f02d9a5d0!8m2!3d24.654317!4d46.7107299!16s%2Fg%2F11l1ck0x_4!19sChIJmSxshW0FLz4R0KXZAp-zTNw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D8%AD%D9%85%D8%AF+%D9%81%D9%88%D8%B2%D8%A7%D9%86+%D8%A7%D9%84%D8%B3%D9%84%D9%8A%D9%85%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f199c36acf569:0x2912d98f4f4caa13!8m2!3d24.5932425!4d46.5797902!16s%2Fg%2F11f3nhm45h!19sChIJafWsNpwZLz4RE6pMT4_ZEik?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%BA%D8%B3%D9%8A%D9%84+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f1859cdc2067b:0x43589be766d25fe7!8m2!3d24.5806673!4d46.5444732!16s%2Fg%2F11f3xqdr0k!19sChIJewbCzVkYLz4R51_SZuebWEM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%86%D9%85%D9%88%D8%B1+%D8%A7%D9%84%D9%85%D8%A7%D8%B3%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f1989f154a795:0x36ff81106f8e6f30!8m2!3d24.5517352!4d46.5531636!16s%2Fg%2F11snyvssvn!19sChIJladU8YkZLz4RMG-ObxCB_zY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A8%D8%B1%D8%AC+%D8%A7%D9%84%D8%AC%D9%88%D8%B2%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2f19e0a3cb5515:0xa62c3af48a601e71!8m2!3d24.5639911!4d46.5453762!16s%2Fg%2F11svj5p5d5!19sChIJFVXLo-AZLz4RcR5givQ6LKY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B9%D8%B7%D8%B1%D9%87+%D8%A7%D9%84%D8%A7%D8%B3%D9%85%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f19caa336b225:0xb56dd2a7ee45d976!8m2!3d24.5677319!4d46.5557814!16s%2Fg%2F11gfhc7j55!19sChIJJbI2o8oZLz4RdtlF7qfSbbU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B1%D8%BA%D9%88%D8%A9+%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D9%82%D8%A8%D9%84+%D9%84%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f194cfc105c55:0xd0be96c3b8960570!8m2!3d24.5803347!4d46.547646!16s%2Fg%2F11tsjjncqb!19sChIJVVwQ_EwZLz4RcAWWuMOWvtA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D9%87+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D9%86%D8%AC%D9%88%D9%85+%D8%A7%D9%84%D8%B3%D8%A7%D8%B7%D8%B9%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2f194cc5d047bf:0xee163a3024365fa6!8m2!3d24.5790596!4d46.5559277!16s%2Fg%2F11shk3tqls!19sChIJv0fQxUwZLz4Rpl82JDA6Fu4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%81%D9%86+%D8%A7%D9%8A%D9%84%D9%81%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f195439da3bd7:0x192a7a7fa9f72249!8m2!3d24.55296!4d46.5607506!16s%2Fg%2F11vkrdsqh3!19sChIJ1zvaOVQZLz4RSSL3qX96Khk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%AF%D8%A7%D9%86%D8%A9+%D8%A7%D9%84%D8%AE%D9%8A%D8%B1+%D9%84%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+4%E2%80%AD/data=!4m7!3m6!1s0x3e2f137bc3e6905b:0x573cef44807529bb!8m2!3d24.4849572!4d46.6208445!16s%2Fg%2F11v0vp9cs8!19sChIJW5Dmw3sTLz4Ruyl1gETvPFc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D9%88%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%BA%D8%B3%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2f19a1292fde03:0xd2d089f450a01107!8m2!3d24.5591331!4d46.5729835!16s%2Fg%2F11krfhlyjq!19sChIJA94vKaEZLz4RBxGgUPSJ0NI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f1a12fee4a185:0x7fad8e5c31d952b9!8m2!3d24.5804356!4d46.6096328!16s%2Fg%2F11f40sc90b!19sChIJhaHk_hIaLz4RuVLZMVyOrX8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Car+Wash/data=!4m7!3m6!1s0x3e2fa195dfe82dc9:0xce4ed4fcc93d0d99!8m2!3d24.5478368!4d46.8683718!16s%2Fg%2F11pvct9wr7!19sChIJyS3o35WhLz4RmQ09yfzUTs4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D9%87+%D8%B5%D8%A7%D8%AF%D9%82%E2%80%AD/data=!4m7!3m6!1s0x3e2f097e9d008653:0xb4639f066030605f!8m2!3d24.5953723!4d46.7841508!16s%2Fg%2F11rznms1ck!19sChIJU4YAnX4JLz4RX2AwYAafY7Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A8%D8%B1%D8%AC+%D8%A7%D9%84%D8%AC%D9%88%D8%B2%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2f09ef93a36e17:0x31b1614fdc85ac4e!8m2!3d24.5672409!4d46.7621788!16s%2Fg%2F11vb_h7kyx!19sChIJF26jk-8JLz4RTqyF3E9hsTE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D9%85%D9%8A%D9%85+%D9%83%D8%A7%D8%B1+%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f19d27e096be1:0x7dc7eb54579e8179!8m2!3d24.552458!4d46.564901!16s%2Fg%2F11sx238_2v!19sChIJ4WsJftIZLz4ReYGeV1Trx30?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%85%D8%B3%D8%A7%D9%8A%D9%81%E2%80%AD/data=!4m7!3m6!1s0x3e2f19ba52c29a31:0x45bf71dc027841bc!8m2!3d24.5788861!4d46.5667564!16s%2Fg%2F11f3smpdgy!19sChIJMZrCUroZLz4RvEF4Atxxv0U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f18f836102e25:0x6dbdabe6d63f6056!8m2!3d24.5859912!4d46.5463102!16s%2Fg%2F11f3wcsv75!19sChIJJS4QNvgYLz4RVmA_1uarvW0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D9%87+%D9%83%D8%A7%D8%B1%D8%AA%D9%8A%D9%83+%D9%84%D8%BA%D8%B3%D9%8A%D9%84+%D9%88%D8%AA%D9%84%D9%85%D9%8A%D8%B9+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f0904ab3531f3:0x14b36a784ae55f84!8m2!3d24.59185!4d46.7749405!16s%2Fg%2F11vsyqn14j!19sChIJ8zE1qwQJLz4RhF_lSnhqsxQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%AA%D8%AD%D9%84%D9%8A%D9%84+%D8%A7%D9%84%D8%A3%D8%AF%D8%A7%D8%A1+%D9%84%D8%BA%D8%B3%D9%8A%D9%84+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f10914627265d:0x94ddaf31f8745443!8m2!3d24.5582435!4d46.6180606!16s%2Fg%2F11f61vs3n3!19sChIJXSYnRpEQLz4RQ1R0-DGv3ZQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D8%B1%D8%A7%D8%AC+%D8%AB%D8%B1%D9%8A+%D9%84%D8%AA%D9%84%D9%85%D9%8A%D8%B9+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f0ffef395b151:0x5541bb23b668e78c!8m2!3d24.5413053!4d46.6857713!16s%2Fg%2F11rms4zny3!19sChIJUbGV8_4PLz4RjOdotiO7QVU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%A8%D8%B1%D8%AC+%D8%A7%D9%84%D8%AC%D9%88%D8%B2%D8%A7%D8%A1+%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+%D9%81%D8%B1%D8%B9+%D9%86%D8%AC%D9%85+%D8%A7%D9%84%D8%AF%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f179ecd8d8351:0xb7e0bc45c85bb273!8m2!3d24.5520679!4d46.5826076!16s%2Fg%2F11kqmrwvfq!19sChIJUYONzZ4XLz4Rc7JbyEW84Lc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D9%86%D8%A7%D8%B5%D8%B1+%D9%84%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f199ab83b2aa7:0xa647b881ca425cff!8m2!3d24.5886802!4d46.5830568!16s%2Fg%2F11gh2t7gkm!19sChIJpyo7uJoZLz4R_1xCyoG4R6Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f182e6bf63167:0x69aefa0a52ac4124!8m2!3d24.5549412!4d46.5490618!16s%2Fg%2F11f641y1bb!19sChIJZzH2ay4YLz4RJEGsUgr6rmk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D9%87+%D9%85%D9%84%D9%85%D8%B3+%D8%A7%D9%84%D8%A7%D9%86%D8%A7%D9%82%D9%87+%D9%84%D8%A7%D8%AE%D8%AF%D9%85%D9%87+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f1914051a7839:0xd80bf7a8e0167892!8m2!3d24.5666255!4d46.5556129!16s%2Fg%2F11ldd01vs3!19sChIJOXgaBRQZLz4RkngW4Kj3C9g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D9%81%D8%AA+%D9%84%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f11ec7e23a6f5:0x5ccd128bb53f9977!8m2!3d24.5327902!4d46.6539618!16s%2Fg%2F11tnj_hdn7!19sChIJ9aYjfuwRLz4Rd5k_tYsSzVw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%84%D9%8A%D9%86%D9%8A%D8%B1%D8%A7+%D8%AA%D9%84%D9%85%D9%8A%D8%B9+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+cleanera%E2%80%AD/data=!4m7!3m6!1s0x3e2f0f71b3856d23:0x771eabc4108aa4c1!8m2!3d24.5412281!4d46.6858891!16s%2Fg%2F11ssvhy8zc!19sChIJI22Fs3EPLz4RwaSKEMSrHnc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f11d4edefa817:0x43899120ad7d1e0c!8m2!3d24.5492207!4d46.6671695!16s%2Fg%2F11gfk86g04!19sChIJF6jv7dQRLz4RDB59rSCRiUM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Bubbly+CarWash+-+%D9%85%D8%BA%D8%B3%D9%84%D8%A9+%D8%A8%D8%A8%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f119845f9ebf1:0x48ad38bb44f9ef1b!8m2!3d24.5701296!4d46.669561!16s%2Fg%2F11trxr0yqk!19sChIJ8ev5RZgRLz4RG-_5RLs4rUg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>مغسلة الغسيل الذهبي للسيارات</t>
-  </si>
-  <si>
-    <t>مغاسل الرواد المركزي Pioneers Laundry Main branch</t>
-  </si>
-  <si>
-    <t>مغاسل الجبر للملابس</t>
-  </si>
-  <si>
-    <t>مغاسل ديم الحديثة</t>
-  </si>
-  <si>
-    <t>مغاسل الأنوار العصرية</t>
-  </si>
-  <si>
-    <t>مغاسل رواية نظافة للملابس</t>
-  </si>
-  <si>
-    <t>مغسلة أضواء الخزامى</t>
+    <t>https://www.go...</t>
+  </si>
+  <si>
+    <t>مغسلة الغسيل ا...</t>
+  </si>
+  <si>
+    <t>مغاسل الرواد ا...</t>
+  </si>
+  <si>
+    <t>مغاسل الجبر لل...</t>
+  </si>
+  <si>
+    <t>مغاسل ديم الحد...</t>
+  </si>
+  <si>
+    <t>مغاسل الأنوار ...</t>
+  </si>
+  <si>
+    <t>مغاسل رواية نظ...</t>
+  </si>
+  <si>
+    <t>مغسلة أضواء ال...</t>
   </si>
   <si>
     <t>مغاسل الرهدن</t>
@@ -367,19 +70,19 @@
     <t>مغسلة الجبر</t>
   </si>
   <si>
-    <t>مغسلة ذهول لغسيل الملابس</t>
-  </si>
-  <si>
-    <t>مغسله الورد الازرق فرع 2</t>
-  </si>
-  <si>
-    <t>مغاسل ناصع | NASEA LAUNDRY</t>
-  </si>
-  <si>
-    <t>مغاسل المهرة الحديثة</t>
-  </si>
-  <si>
-    <t>مغاسل الخيال السريعة</t>
+    <t>مغسلة ذهول لغس...</t>
+  </si>
+  <si>
+    <t>مغسله الورد ال...</t>
+  </si>
+  <si>
+    <t>مغاسل ناصع | N...</t>
+  </si>
+  <si>
+    <t>مغاسل المهرة ا...</t>
+  </si>
+  <si>
+    <t>مغاسل الخيال ا...</t>
   </si>
   <si>
     <t>مغاسل سما جود</t>
@@ -394,22 +97,22 @@
     <t>مغاسل الرهدن‎</t>
   </si>
   <si>
-    <t>Right Choice Laundry</t>
-  </si>
-  <si>
-    <t>مغسلة المدينة النظيفة</t>
+    <t>Right Choice L...</t>
+  </si>
+  <si>
+    <t>مغسلة المدينة ...</t>
   </si>
   <si>
     <t>مغسلة شاهين</t>
   </si>
   <si>
-    <t>Al enayah Laundry</t>
-  </si>
-  <si>
-    <t>مغسله تاون وان لغسيل الملابس وبطانيات وسجاد مفرد</t>
-  </si>
-  <si>
-    <t>مغاسل السارية للملابس</t>
+    <t>Al enayah Laun...</t>
+  </si>
+  <si>
+    <t>مغسله تاون وان...</t>
+  </si>
+  <si>
+    <t>مغاسل السارية ...</t>
   </si>
   <si>
     <t>مغسلة وتد</t>
@@ -418,10 +121,10 @@
     <t>مغاسل الساعة</t>
   </si>
   <si>
-    <t>مغسلة تاون وان لغسيل الملابس</t>
-  </si>
-  <si>
-    <t>مغسلة الجودة الفائقة</t>
+    <t>مغسلة تاون وان...</t>
+  </si>
+  <si>
+    <t>مغسلة الجودة ا...</t>
   </si>
   <si>
     <t>مغسلة اﻷسطورة</t>
@@ -433,13 +136,13 @@
     <t>مغاسل لمعة</t>
   </si>
   <si>
-    <t>مغاسل العابرية</t>
-  </si>
-  <si>
-    <t>مغسلة الاربعين</t>
-  </si>
-  <si>
-    <t>مغسلة البياض الدائم</t>
+    <t>مغاسل العابرية...</t>
+  </si>
+  <si>
+    <t>مغسلة الاربعين...</t>
+  </si>
+  <si>
+    <t>مغسلة البياض ا...</t>
   </si>
   <si>
     <t>مغسلة فيصل</t>
@@ -454,34 +157,34 @@
     <t>مغسلة سكندر</t>
   </si>
   <si>
-    <t>مغاسل نظيف الساطع</t>
-  </si>
-  <si>
-    <t>مغاسل اللحظه اللامعة للملابس والسجاد</t>
+    <t>مغاسل نظيف الس...</t>
+  </si>
+  <si>
+    <t>مغاسل اللحظه ا...</t>
   </si>
   <si>
     <t>مغاسل النسيج</t>
   </si>
   <si>
-    <t>شركة تنظيـ,ـف بالخرج</t>
-  </si>
-  <si>
-    <t>مغسلة الالماس البخارية مغسله ملابس سجاد بخار تنظيف الملابس</t>
-  </si>
-  <si>
-    <t>مغسلة ألوان الآلية</t>
+    <t>شركة تنظيـ,ـف ...</t>
+  </si>
+  <si>
+    <t>مغسلة الالماس ...</t>
+  </si>
+  <si>
+    <t>مغسلة ألوان ال...</t>
   </si>
   <si>
     <t>مغاسل المنزل</t>
   </si>
   <si>
-    <t>مغاسل مرسى الغسيل</t>
+    <t>مغاسل مرسى الغ...</t>
   </si>
   <si>
     <t>مغاسل رتوة</t>
   </si>
   <si>
-    <t>مغاسل السحابة الممطرة - Sahaba Mamthara Laundry</t>
+    <t>مغاسل السحابة ...</t>
   </si>
   <si>
     <t>مغسلة سقوف</t>
@@ -490,97 +193,97 @@
     <t>Mushrif</t>
   </si>
   <si>
-    <t>مغسلة سيارات توب كلين</t>
-  </si>
-  <si>
-    <t>مغاسل نقاء السريعة</t>
-  </si>
-  <si>
-    <t>شركة تنظيف بالخفجي هوسون الدولية تنظيف منازل تنظيف شقق تنظيف فلل نظافة خزانات غسيل كنب موكيت سجاد تنظيف مجالس بالخفجي</t>
-  </si>
-  <si>
-    <t>مغاسل افضل تنظيف</t>
+    <t>مغسلة سيارات ت...</t>
+  </si>
+  <si>
+    <t>مغاسل نقاء الس...</t>
+  </si>
+  <si>
+    <t>شركة تنظيف بال...</t>
+  </si>
+  <si>
+    <t>مغاسل افضل تنظ...</t>
   </si>
   <si>
     <t>M1 car wash</t>
   </si>
   <si>
-    <t>مغسلة سيارات بندر بن عبدالعزيز القحطاني</t>
-  </si>
-  <si>
-    <t>مركز محطة الإسكان للتسوق</t>
+    <t>مغسلة سيارات ب...</t>
+  </si>
+  <si>
+    <t>مركز محطة الإس...</t>
   </si>
   <si>
     <t>مغسلة سيارات</t>
   </si>
   <si>
-    <t>مغسلة اوف اون OFF ON</t>
-  </si>
-  <si>
-    <t>تلميع غازي للسيارات</t>
-  </si>
-  <si>
-    <t>مغاسل رشة المياه لخدمات السيارات ( Water Splash )</t>
-  </si>
-  <si>
-    <t>مغسلة اجمل لمعة لخدمات السيارات</t>
-  </si>
-  <si>
-    <t>مغسلة أجمل لمعة لخدمات السيارات فرع طريق الجنادريه</t>
-  </si>
-  <si>
-    <t>مغسله سيارات متنقله S.J</t>
-  </si>
-  <si>
-    <t>رؤيات لخدمات السيارات</t>
+    <t>مغسلة اوف اون ...</t>
+  </si>
+  <si>
+    <t>تلميع غازي للس...</t>
+  </si>
+  <si>
+    <t>مغاسل رشة المي...</t>
+  </si>
+  <si>
+    <t>مغسلة اجمل لمع...</t>
+  </si>
+  <si>
+    <t>مغسلة أجمل لمع...</t>
+  </si>
+  <si>
+    <t>مغسله سيارات م...</t>
+  </si>
+  <si>
+    <t>رؤيات لخدمات ا...</t>
   </si>
   <si>
     <t>مغسلة الصيعري</t>
   </si>
   <si>
-    <t>مغسلة اطلق غسيل</t>
+    <t>مغسلة اطلق غسي...</t>
   </si>
   <si>
     <t>مغسلة ميي كار</t>
   </si>
   <si>
-    <t>مغاسل ردهة السيارة car lobby</t>
-  </si>
-  <si>
-    <t>مغسلة أساس اللمعة</t>
-  </si>
-  <si>
-    <t>شركه التوحيد لغسيل السيارات خدمه متنقله في جميع انحاء الرياض</t>
-  </si>
-  <si>
-    <t>مغسلة احمد فوزان السليمان</t>
+    <t>مغاسل ردهة الس...</t>
+  </si>
+  <si>
+    <t>مغسلة أساس الل...</t>
+  </si>
+  <si>
+    <t>شركه التوحيد ل...</t>
+  </si>
+  <si>
+    <t>مغسلة احمد فوز...</t>
   </si>
   <si>
     <t>غسيل سيارات</t>
   </si>
   <si>
-    <t>النمور الماسية</t>
-  </si>
-  <si>
-    <t>مغاسل برج الجوزاء</t>
-  </si>
-  <si>
-    <t>مغسلة عطره الاسمري</t>
-  </si>
-  <si>
-    <t>مغسلة رغوة المستقبل للسيارات</t>
-  </si>
-  <si>
-    <t>مغسله سيارات النجوم الساطعه</t>
-  </si>
-  <si>
-    <t>مغسلة سفن ايلفن</t>
-  </si>
-  <si>
-    <t>مغسلة دانة الخير للسيارات 4</t>
-  </si>
-  <si>
-    <t>مغسلة واحة الغسيل</t>
+    <t>النمور الماسية...</t>
+  </si>
+  <si>
+    <t>مغاسل برج الجو...</t>
+  </si>
+  <si>
+    <t>مغسلة عطره الا...</t>
+  </si>
+  <si>
+    <t>مغسلة رغوة الم...</t>
+  </si>
+  <si>
+    <t>مغسله سيارات ا...</t>
+  </si>
+  <si>
+    <t>مغسلة سفن ايلف...</t>
+  </si>
+  <si>
+    <t>مغسلة دانة الخ...</t>
+  </si>
+  <si>
+    <t>مغسلة واحة الغ...</t>
   </si>
   <si>
     <t>Car Wash</t>
@@ -589,61 +292,58 @@
     <t>محطه صادق</t>
   </si>
   <si>
-    <t>مغاسل ميم كار لخدمات السيارات</t>
-  </si>
-  <si>
-    <t>مغسلة سيارات مؤسسة مسايف</t>
-  </si>
-  <si>
-    <t>شركه كارتيك لغسيل وتلميع السيارات</t>
-  </si>
-  <si>
-    <t>مغسلة مؤسسة تحليل الأداء لغسيل السيارات</t>
-  </si>
-  <si>
-    <t>كراج ثري لتلميع السيارات</t>
-  </si>
-  <si>
-    <t>مغاسل برج الجوزاء لخدمات السيارات فرع نجم الدين</t>
-  </si>
-  <si>
-    <t>مغسلة ناصر للسيارات</t>
-  </si>
-  <si>
-    <t>مغسله ملمس الاناقه لاخدمه السيارات</t>
-  </si>
-  <si>
-    <t>مغسلة الفت للسيارات</t>
-  </si>
-  <si>
-    <t>كلينيرا تلميع سيارات cleanera</t>
-  </si>
-  <si>
-    <t>Bubbly CarWash - مغسلة ببلي</t>
-  </si>
-  <si>
-    <t>خدمة الغسيل بضغط المياه</t>
+    <t>مغاسل ميم كار ...</t>
+  </si>
+  <si>
+    <t>مغسلة سيارات م...</t>
+  </si>
+  <si>
+    <t>شركه كارتيك لغ...</t>
+  </si>
+  <si>
+    <t>مغسلة مؤسسة تح...</t>
+  </si>
+  <si>
+    <t>كراج ثري لتلمي...</t>
+  </si>
+  <si>
+    <t>مغسلة ناصر للس...</t>
+  </si>
+  <si>
+    <t>مغسله ملمس الا...</t>
+  </si>
+  <si>
+    <t>مغسلة الفت للس...</t>
+  </si>
+  <si>
+    <t>كلينيرا تلميع ...</t>
+  </si>
+  <si>
+    <t>Bubbly CarWash...</t>
+  </si>
+  <si>
+    <t>خدمة الغسيل بض...</t>
   </si>
   <si>
     <t>مغسلة</t>
   </si>
   <si>
-    <t>خدمات تنظيف الملابس</t>
-  </si>
-  <si>
-    <t>تنظيف جاف للملابس</t>
-  </si>
-  <si>
-    <t>خدمة غسيل سجاد</t>
-  </si>
-  <si>
-    <t>خدمة تنظيف منازل</t>
-  </si>
-  <si>
-    <t>محطة غسل سيارات</t>
-  </si>
-  <si>
-    <t>غسيل السيارات بالخدمة الذاتية</t>
+    <t>خدمات تنظيف ال...</t>
+  </si>
+  <si>
+    <t>تنظيف جاف للمل...</t>
+  </si>
+  <si>
+    <t>خدمة غسيل سجاد...</t>
+  </si>
+  <si>
+    <t>خدمة تنظيف منا...</t>
+  </si>
+  <si>
+    <t>محطة غسل سيارا...</t>
+  </si>
+  <si>
+    <t>غسيل السيارات ...</t>
   </si>
   <si>
     <t>4.0</t>
@@ -883,304 +583,292 @@
     <t>265</t>
   </si>
   <si>
-    <t>طريق الأمير فيصل بن فهد، العقربية، الخبر 34445، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Jazair, الثقبة، الخبر 34626، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>75VX+X9C، الشارع السادس عشر، العقربية، الخبر 34446، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع, الخبر الجنوبية، الخبر 34622، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3173 الشارع الثاني والعشرون، العقربية، 7524، الخبر 34446، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8916 الحسين الواسطي، الشراع، ECJB5243، 5243، الخبر 34742، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8128 ابو عبد الرحمن بن عقيل, ECAA8128 2683، حي الخزامى، الخبر 34718، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6283 غرناطة، 3641, الخبر 34226، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9672+WW5، خالد بن الوليد ، الراكه، الراكة الجنوبية، الخبر 34226، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>50 شارع، طيبة، الدمام 00000، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>العزيزية، الشراع، الخبر 32457، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الحسين الواسطي, الشراع، الخبر 34742، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>543W+MHF، الشراع، Unnamed Road, الخبر 34741، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7782 الشارع الثاني والعشرون، العقربية، EKJA3722, 3722, الخبر 34445، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الأبرار، العقربية، الخبر 34446، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>75QW+QF8، شارع أبرار، العقربية، الخبر 34446، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>75RR+PVF، الانوار، العقربية، العقربية، الخبر 34446، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>76W2+3J9, Madinat Al Umal, 7400, الخبر 34442، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>76Q2+22H، مدينة العمال، الخبر 34442، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>75VX+JXX، شارع الأمير حمود، حي العقربية، مدينة العمال، الخبر 34442، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>76W3+5J3، شارع الأمير مقرن ، حي مدينة العمال، مدينة العمال، الخبر 34441، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7129-7197 شارع الأمير حمود، 3945، مدينة العمال، الخبر 34442، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عبدالله بن كثير، العزيزيه عبد الله، الخرج 16275، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>47F8+PQX، الخزامى، الخرج 16272، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مغسلة ملابس، مشرف، الخرج 16249، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4720 طريق الملك سلمان بن عبدالعزيز، الاندلس, 7687، الخرج 16439، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5848+53R، السلام، الخرج 16278، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عبدالله بن كثير، العزيزية، الخرج 16275، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3169، 7355 شارع جعفر بن أبي طالب، الخالدية، الخرج 16271 Alkharj 11942 16271، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3347 خالد بن الوليد، الراكة الجنوبية، الخبر 34226، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9672+QPX، الراكة الجنوبية، الخبر 34226، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3953، الزاهر، الخرج 16438 9078، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>47H8+5P2، الخزامى، الخرج 16272، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3150، الفيصلية، الخرج 16441، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>58QF+8CW، اليمامه، الخرج 06248، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك خالد، الخالدية، الخرج 11942، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5829+W5F، طريق الملك فهد، الريان، الخرج 16277، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4174 علي بن ابي طالب، الريان، 9026, الخرج 16277، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5713 طريق الملك عبدالعزيز، الصفاء، 7272، الخرج 16259، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ابن زيدون، الزاهر، الخرج 16438، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road، الخرج 16249، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road، البرج، الخرج 16278، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>585C+683، السلام، الخرج 16278، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>475P+7Q2 العشره الهداء قبل العمائر، مشرف، الخرج 16249، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الزاهر، الخرج 16438، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3041 طريق الملك فهد،، 8097، النهضة، الخرج 16439، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طارق بن زياد، الاندلس، الخرج 16439، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4383، 9500 شارع الملك عبدالله بن عبدالعزيز، الريان، الخرج 16277 4383، 16277، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>57JM+HH8، الصفاء، الخرج 16259، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>584R+P93، شارع الامام محمد بن سعود، النهضة، الخرج 16439، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>476M+R4F, Al Kharj Road, الخالدية، Riyadh 16271، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الملك خالد، الفيصلية، الخرمة 29373، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>W25J+Q7H، شارع الملك فهد، النزهة، الخرمة 29353، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>King Abdulaziz St, الملك فهد، الخفجي 39255، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع زامل العبدالله السليم، عنيزة 56241، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الامير بندر بن عبدالعزيز، شارع الجبيل، الرياض 13222، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>PQVR+76R، حفصة بنت عمر, حي الروضة، الرياض 13212، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HR9P+896، الاسكان، الرياض 14317، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Azizia near saptco bus stand المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QVVM+HFH، حي الندوة، الرياض 14813، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الرمال، الرياض حي المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RRWH+JVR، الرمال، الرياض 13265، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>وادي الساحل، الرياض 13254، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الرمال، الرياض 13268، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RRWH+9XX، الرمال، الرياض 13264، الم</t>
-  </si>
-  <si>
-    <t>RSNB2992، 6504 المحيط، حي الندوة، 2992، الرياض 14814، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QRWW+VQC، حي المعيزيلة، الرياض 13234، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QVX4+VX2، الجنادرية، الرياض 13611، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QVX5+Q2G، الجنادرية، الرياض 13611، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الرمال، الرياض 13263، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RURD2667، 2667 عامر بن مخلد النجاري، 7958، حي الرمال، الرياض 13263، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MP36+P7H شارع المستلزمات الطبيه، المربع، شارع الضباب -حي، الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HHVH+7WV، شارع اسماء بنت ابي بكر، حي طويق، طويق، الرياض 14914، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HGJV+7Q9, شارع بلال بن رباح، حي, طويق، الرياض 14923، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3774 احمد برزنجي، طويق، الرياض 14936 8719، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3136 الذهبي، حي طويق، RKWA7101، 7101، الرياض 14928، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HH94+38V، شارع الامير عبدالرحمن بن سعود، حي طويق، طويق، الرياض 14927، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6823 شهيد الدين ثم الوطن عبدالله بن محمد بن، حي طويق، RKQA4386، 4386، الرياض 13791، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HHH4+J8Q حي، بلال بن رباح، طويق، الرياض 14923، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>نجم الدين حي، طويق، الرياض 14936، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6949 الحيرة، حي ديراب، RKDA3803، 3803، الرياض 14972، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6771 احمد بن الخطاب، حي طويق، RKWA3920، 3920، الرياض 14927، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HJJ5+5VC، طريق المدينة المنورة - حي السويدي الغربي، العريجاء الغربية، الرياض 12978، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GVX9+588، المدينة الصناعية الجديدة، الرياض 14331، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8281 العسقلاني, 2935، حي العزيزية، الرياض 14513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>نهاوند، حي العزيزية، الرياض 14515، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق نجم الدين الأيوبي الفرعي، طويق، الرياض 14936، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HHH8+HP2، بلال بن رباح, حي طويق، الرياض 14922، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HGPW+9GV حي, شارع خديجة بنت خويلد، طويق، الرياض 14923، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق العزيزية الفرعي، العزيزية، الرياض 14514، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HJ59+76V, شارع التوحيد، حي, ظهرة نمار، الرياض 14925، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3592 الامام مسلم، حي المروة، الرياض 14721 6224، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي طويق، RKWD2923، 2923 مؤيد الدين الحارثي، 6078، الرياض 14926، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HHQM+F6F، شارع اسماء بنت ابي بكر - حي طويق، طويق، الرياض 14914، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HG3X+XJF، طريق نجم الدين الأيوبي الفرعي، طويق، الرياض 14928، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>سليمان بن عبدالملك بن مروان، طويق، الرياض 11345، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GMM3+3HM، طريق ديراب، الفرعي، الحزم،، الرياض 14966،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6224 الامام مسلم، حي المروة، 3592، الرياض 14721، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GMX8+MVM، طريق ديراب، الحزم، الرياض 14963، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الطريق الدائري الجنوبي الفرعي، الحزم، الرياض 14963، المملكة العربية السعودية</t>
+    <t>طريق الأمير في...</t>
+  </si>
+  <si>
+    <t>Jazair, الثقبة...</t>
+  </si>
+  <si>
+    <t>75VX+X9C، الشا...</t>
+  </si>
+  <si>
+    <t>شارع, الخبر ال...</t>
+  </si>
+  <si>
+    <t>3173 الشارع ال...</t>
+  </si>
+  <si>
+    <t>8916 الحسين ال...</t>
+  </si>
+  <si>
+    <t>8128 ابو عبد ا...</t>
+  </si>
+  <si>
+    <t>6283 غرناطة، 3...</t>
+  </si>
+  <si>
+    <t>9672+WW5، خالد...</t>
+  </si>
+  <si>
+    <t>50 شارع، طيبة،...</t>
+  </si>
+  <si>
+    <t>العزيزية، الشر...</t>
+  </si>
+  <si>
+    <t>الحسين الواسطي...</t>
+  </si>
+  <si>
+    <t>543W+MHF، الشر...</t>
+  </si>
+  <si>
+    <t>7782 الشارع ال...</t>
+  </si>
+  <si>
+    <t>شارع الأبرار، ...</t>
+  </si>
+  <si>
+    <t>75QW+QF8، شارع...</t>
+  </si>
+  <si>
+    <t>75RR+PVF، الان...</t>
+  </si>
+  <si>
+    <t>76W2+3J9, Madi...</t>
+  </si>
+  <si>
+    <t>76Q2+22H، مدين...</t>
+  </si>
+  <si>
+    <t>75VX+JXX، شارع...</t>
+  </si>
+  <si>
+    <t>76W3+5J3، شارع...</t>
+  </si>
+  <si>
+    <t>7129-7197 شارع...</t>
+  </si>
+  <si>
+    <t>شارع عبدالله ب...</t>
+  </si>
+  <si>
+    <t>47F8+PQX، الخز...</t>
+  </si>
+  <si>
+    <t>مغسلة ملابس، م...</t>
+  </si>
+  <si>
+    <t>4720 طريق المل...</t>
+  </si>
+  <si>
+    <t>5848+53R، السل...</t>
+  </si>
+  <si>
+    <t>3169، 7355 شار...</t>
+  </si>
+  <si>
+    <t>3347 خالد بن ا...</t>
+  </si>
+  <si>
+    <t>9672+QPX، الرا...</t>
+  </si>
+  <si>
+    <t>3953، الزاهر، ...</t>
+  </si>
+  <si>
+    <t>47H8+5P2، الخز...</t>
+  </si>
+  <si>
+    <t>3150، الفيصلية...</t>
+  </si>
+  <si>
+    <t>58QF+8CW، اليم...</t>
+  </si>
+  <si>
+    <t>طريق الملك خال...</t>
+  </si>
+  <si>
+    <t>5829+W5F، طريق...</t>
+  </si>
+  <si>
+    <t>4174 علي بن اب...</t>
+  </si>
+  <si>
+    <t>5713 طريق المل...</t>
+  </si>
+  <si>
+    <t>ابن زيدون، الز...</t>
+  </si>
+  <si>
+    <t>Unnamed Road، ...</t>
+  </si>
+  <si>
+    <t>585C+683، السل...</t>
+  </si>
+  <si>
+    <t>475P+7Q2 العشر...</t>
+  </si>
+  <si>
+    <t>الزاهر، الخرج ...</t>
+  </si>
+  <si>
+    <t>3041 طريق المل...</t>
+  </si>
+  <si>
+    <t>طارق بن زياد، ...</t>
+  </si>
+  <si>
+    <t>4383، 9500 شار...</t>
+  </si>
+  <si>
+    <t>57JM+HH8، الصف...</t>
+  </si>
+  <si>
+    <t>584R+P93، شارع...</t>
+  </si>
+  <si>
+    <t>476M+R4F, Al K...</t>
+  </si>
+  <si>
+    <t>شارع الملك خال...</t>
+  </si>
+  <si>
+    <t>W25J+Q7H، شارع...</t>
+  </si>
+  <si>
+    <t>King Abdulaziz...</t>
+  </si>
+  <si>
+    <t>شارع زامل العب...</t>
+  </si>
+  <si>
+    <t>الامير بندر بن...</t>
+  </si>
+  <si>
+    <t>PQVR+76R، حفصة...</t>
+  </si>
+  <si>
+    <t>HR9P+896، الاس...</t>
+  </si>
+  <si>
+    <t>Azizia near sa...</t>
+  </si>
+  <si>
+    <t>QVVM+HFH، حي ا...</t>
+  </si>
+  <si>
+    <t>الرمال، الرياض...</t>
+  </si>
+  <si>
+    <t>RRWH+JVR، الرم...</t>
+  </si>
+  <si>
+    <t>وادي الساحل، ا...</t>
+  </si>
+  <si>
+    <t>RRWH+9XX، الرم...</t>
+  </si>
+  <si>
+    <t>RSNB2992، 6504...</t>
+  </si>
+  <si>
+    <t>QRWW+VQC، حي ا...</t>
+  </si>
+  <si>
+    <t>QVX4+VX2، الجن...</t>
+  </si>
+  <si>
+    <t>QVX5+Q2G، الجن...</t>
+  </si>
+  <si>
+    <t>RURD2667، 2667...</t>
+  </si>
+  <si>
+    <t>MP36+P7H شارع ...</t>
+  </si>
+  <si>
+    <t>HHVH+7WV، شارع...</t>
+  </si>
+  <si>
+    <t>HGJV+7Q9, شارع...</t>
+  </si>
+  <si>
+    <t>3774 احمد برزن...</t>
+  </si>
+  <si>
+    <t>3136 الذهبي، ح...</t>
+  </si>
+  <si>
+    <t>HH94+38V، شارع...</t>
+  </si>
+  <si>
+    <t>6823 شهيد الدي...</t>
+  </si>
+  <si>
+    <t>HHH4+J8Q حي، ب...</t>
+  </si>
+  <si>
+    <t>نجم الدين حي، ...</t>
+  </si>
+  <si>
+    <t>6949 الحيرة، ح...</t>
+  </si>
+  <si>
+    <t>6771 احمد بن ا...</t>
+  </si>
+  <si>
+    <t>HJJ5+5VC، طريق...</t>
+  </si>
+  <si>
+    <t>GVX9+588، المد...</t>
+  </si>
+  <si>
+    <t>8281 العسقلاني...</t>
+  </si>
+  <si>
+    <t>نهاوند، حي الع...</t>
+  </si>
+  <si>
+    <t>طريق نجم الدين...</t>
+  </si>
+  <si>
+    <t>HHH8+HP2، بلال...</t>
+  </si>
+  <si>
+    <t>HGPW+9GV حي, ش...</t>
+  </si>
+  <si>
+    <t>طريق العزيزية ...</t>
+  </si>
+  <si>
+    <t>HJ59+76V, شارع...</t>
+  </si>
+  <si>
+    <t>3592 الامام مس...</t>
+  </si>
+  <si>
+    <t>حي طويق، RKWD2...</t>
+  </si>
+  <si>
+    <t>HHQM+F6F، شارع...</t>
+  </si>
+  <si>
+    <t>HG3X+XJF، طريق...</t>
+  </si>
+  <si>
+    <t>سليمان بن عبدا...</t>
+  </si>
+  <si>
+    <t>GMM3+3HM، طريق...</t>
+  </si>
+  <si>
+    <t>6224 الامام مس...</t>
+  </si>
+  <si>
+    <t>GMX8+MVM، طريق...</t>
+  </si>
+  <si>
+    <t>الطريق الدائري...</t>
   </si>
   <si>
     <t>+966503819063</t>
@@ -1453,22 +1141,22 @@
     <t>+966534309229</t>
   </si>
   <si>
-    <t>https://www.pioneers.sa.com/</t>
-  </si>
-  <si>
-    <t>http://alrahden.com.sa/</t>
-  </si>
-  <si>
-    <t>https://www.superquality.net/</t>
-  </si>
-  <si>
-    <t>https://laundromat-2794.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/bhpcxMkxUQNX6Rq48?g_st=ic</t>
-  </si>
-  <si>
-    <t>https://cleaneraksa.com/</t>
+    <t>https://www.pi...</t>
+  </si>
+  <si>
+    <t>http://alrahde...</t>
+  </si>
+  <si>
+    <t>https://www.su...</t>
+  </si>
+  <si>
+    <t>https://laundr...</t>
+  </si>
+  <si>
+    <t>https://maps.a...</t>
+  </si>
+  <si>
+    <t>https://cleane...</t>
   </si>
 </sst>
 </file>
@@ -1876,2281 +1564,2281 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>389</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>479</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="G4" t="s">
-        <v>391</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>392</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
-        <v>393</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="G7" t="s">
-        <v>394</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="G8" t="s">
-        <v>395</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="G9" t="s">
-        <v>396</v>
+        <v>292</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>480</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="G10" t="s">
-        <v>397</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="G11" t="s">
-        <v>398</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="G12" t="s">
-        <v>399</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G13" t="s">
-        <v>400</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="G14" t="s">
-        <v>401</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="F15" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="G15" t="s">
-        <v>402</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
         <v>203</v>
       </c>
-      <c r="D16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" t="s">
-        <v>303</v>
-      </c>
       <c r="G16" t="s">
-        <v>403</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="G17" t="s">
-        <v>404</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>405</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>396</v>
+        <v>292</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>480</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
-        <v>406</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>407</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>408</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>409</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>410</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="F25" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>411</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>412</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
-        <v>396</v>
+        <v>292</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>480</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
-        <v>133</v>
-      </c>
       <c r="C28" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="F28" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>413</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
-        <v>134</v>
-      </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>316</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
-        <v>410</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>317</v>
+        <v>216</v>
       </c>
       <c r="G30" t="s">
-        <v>414</v>
+        <v>310</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>481</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s">
-        <v>136</v>
-      </c>
       <c r="C31" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="F31" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
-        <v>137</v>
-      </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>319</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="F33" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="G33" t="s">
-        <v>415</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
-        <v>139</v>
-      </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="G34" t="s">
-        <v>416</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
-        <v>140</v>
-      </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>322</v>
+        <v>221</v>
       </c>
       <c r="G35" t="s">
-        <v>417</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>222</v>
       </c>
       <c r="G36" t="s">
-        <v>418</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="G37" t="s">
-        <v>419</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
-        <v>143</v>
-      </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="G38" t="s">
-        <v>420</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="B39" t="s">
-        <v>144</v>
-      </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G39" t="s">
-        <v>421</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
-        <v>145</v>
-      </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="G40" t="s">
-        <v>422</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="s">
-        <v>146</v>
-      </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="G41" t="s">
-        <v>423</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="B42" t="s">
-        <v>147</v>
-      </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s">
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="G42" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
-        <v>148</v>
-      </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="F43" t="s">
-        <v>330</v>
+        <v>228</v>
       </c>
       <c r="G43" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" t="s">
-        <v>149</v>
-      </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
-        <v>331</v>
+        <v>229</v>
       </c>
       <c r="G44" t="s">
-        <v>426</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
-        <v>150</v>
-      </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="G45" t="s">
-        <v>427</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="B46" t="s">
-        <v>151</v>
-      </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
-        <v>333</v>
+        <v>231</v>
       </c>
       <c r="G46" t="s">
-        <v>428</v>
+        <v>324</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="B47" t="s">
-        <v>152</v>
-      </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="F47" t="s">
-        <v>334</v>
+        <v>232</v>
       </c>
       <c r="G47" t="s">
-        <v>429</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="B48" t="s">
-        <v>153</v>
-      </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="F48" t="s">
-        <v>335</v>
+        <v>233</v>
       </c>
       <c r="G48" t="s">
-        <v>430</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="s">
-        <v>154</v>
-      </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="F49" t="s">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="G49" t="s">
-        <v>431</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
-        <v>155</v>
-      </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F50" t="s">
-        <v>337</v>
+        <v>235</v>
       </c>
       <c r="G50" t="s">
-        <v>432</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="B51" t="s">
-        <v>156</v>
-      </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="G51" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="B52" t="s">
-        <v>157</v>
-      </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="G52" t="s">
-        <v>434</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="B53" t="s">
-        <v>158</v>
-      </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="F53" t="s">
-        <v>340</v>
+        <v>238</v>
       </c>
       <c r="G53" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
-        <v>159</v>
-      </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="F54" t="s">
-        <v>341</v>
+        <v>239</v>
       </c>
       <c r="G54" t="s">
-        <v>436</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="B55" t="s">
-        <v>160</v>
-      </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="F55" t="s">
-        <v>342</v>
+        <v>240</v>
       </c>
       <c r="G55" t="s">
-        <v>437</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
-        <v>161</v>
-      </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="F56" t="s">
-        <v>343</v>
+        <v>241</v>
       </c>
       <c r="G56" t="s">
-        <v>438</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
-        <v>162</v>
-      </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="F57" t="s">
-        <v>344</v>
+        <v>242</v>
       </c>
       <c r="G57" t="s">
-        <v>439</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="B58" t="s">
-        <v>163</v>
-      </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="F58" t="s">
-        <v>345</v>
+        <v>243</v>
       </c>
       <c r="G58" t="s">
-        <v>440</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
-        <v>164</v>
-      </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="F59" t="s">
-        <v>346</v>
+        <v>244</v>
       </c>
       <c r="G59" t="s">
-        <v>441</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="B60" t="s">
-        <v>165</v>
-      </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="F60" t="s">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="G60" t="s">
-        <v>442</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="B61" t="s">
-        <v>166</v>
-      </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>348</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>443</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
         <v>68</v>
       </c>
-      <c r="B62" t="s">
-        <v>167</v>
-      </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" t="s">
         <v>247</v>
       </c>
-      <c r="F62" t="s">
-        <v>349</v>
-      </c>
       <c r="G62" t="s">
-        <v>444</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="s">
-        <v>168</v>
-      </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="F63" t="s">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="G63" t="s">
-        <v>445</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
         <v>70</v>
       </c>
-      <c r="B64" t="s">
-        <v>169</v>
-      </c>
       <c r="C64" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="F64" t="s">
-        <v>351</v>
+        <v>249</v>
       </c>
       <c r="G64" t="s">
-        <v>446</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
-        <v>170</v>
-      </c>
       <c r="C65" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="F65" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="G65" t="s">
-        <v>446</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
         <v>72</v>
       </c>
-      <c r="B66" t="s">
-        <v>171</v>
-      </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E66" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="F66" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="G66" t="s">
-        <v>447</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
         <v>73</v>
       </c>
-      <c r="B67" t="s">
-        <v>172</v>
-      </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="F67" t="s">
-        <v>354</v>
+        <v>251</v>
       </c>
       <c r="G67" t="s">
-        <v>448</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="B68" t="s">
-        <v>173</v>
-      </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="F68" t="s">
-        <v>355</v>
+        <v>252</v>
       </c>
       <c r="G68" t="s">
-        <v>449</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
         <v>75</v>
       </c>
-      <c r="B69" t="s">
-        <v>174</v>
-      </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="F69" t="s">
-        <v>356</v>
+        <v>253</v>
       </c>
       <c r="G69" t="s">
-        <v>450</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="B70" t="s">
-        <v>175</v>
-      </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="E70" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="F70" t="s">
-        <v>357</v>
+        <v>254</v>
       </c>
       <c r="G70" t="s">
-        <v>451</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
-        <v>176</v>
-      </c>
       <c r="C71" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="F71" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="G71" t="s">
-        <v>452</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="B72" t="s">
-        <v>177</v>
-      </c>
       <c r="C72" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="E72" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="F72" t="s">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="G72" t="s">
-        <v>453</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="B73" t="s">
-        <v>178</v>
-      </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>360</v>
+        <v>256</v>
       </c>
       <c r="G73" t="s">
-        <v>454</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="B74" t="s">
-        <v>179</v>
-      </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="F74" t="s">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="G74" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="B75" t="s">
-        <v>180</v>
-      </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="E75" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="G75" t="s">
-        <v>456</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="s">
-        <v>181</v>
-      </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="E76" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="F76" t="s">
-        <v>363</v>
+        <v>259</v>
       </c>
       <c r="G76" t="s">
-        <v>457</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="s">
-        <v>182</v>
-      </c>
       <c r="C77" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>276</v>
+        <v>176</v>
       </c>
       <c r="F77" t="s">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="G77" t="s">
-        <v>458</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="B78" t="s">
-        <v>183</v>
-      </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="G78" t="s">
-        <v>459</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="B79" t="s">
-        <v>184</v>
-      </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="E79" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="F79" t="s">
-        <v>366</v>
+        <v>262</v>
       </c>
       <c r="G79" t="s">
-        <v>460</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="B80" t="s">
-        <v>185</v>
-      </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>367</v>
+        <v>263</v>
       </c>
       <c r="G80" t="s">
-        <v>461</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="s">
-        <v>186</v>
-      </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="E81" t="s">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="F81" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="G81" t="s">
-        <v>462</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="B82" t="s">
-        <v>187</v>
-      </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D82" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>369</v>
+        <v>265</v>
       </c>
       <c r="G82" t="s">
-        <v>463</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="B83" t="s">
-        <v>188</v>
-      </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="F83" t="s">
-        <v>370</v>
+        <v>266</v>
       </c>
       <c r="G83" t="s">
-        <v>464</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E84" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="F84" t="s">
-        <v>371</v>
+        <v>267</v>
       </c>
       <c r="G84" t="s">
-        <v>465</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D85" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="E85" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="F85" t="s">
-        <v>372</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="F86" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="E87" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="F87" t="s">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="G87" t="s">
-        <v>458</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="G88" t="s">
-        <v>466</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="E89" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="F89" t="s">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="G89" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="E90" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="F90" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="G90" t="s">
-        <v>468</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>378</v>
+        <v>274</v>
       </c>
       <c r="G91" t="s">
-        <v>469</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="E92" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="F92" t="s">
-        <v>379</v>
+        <v>275</v>
       </c>
       <c r="G92" t="s">
-        <v>470</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E93" t="s">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="F93" t="s">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="G93" t="s">
-        <v>471</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E94" t="s">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="G94" t="s">
-        <v>458</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="F95" t="s">
-        <v>382</v>
+        <v>278</v>
       </c>
       <c r="G95" t="s">
-        <v>472</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E96" t="s">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>383</v>
+        <v>279</v>
       </c>
       <c r="G96" t="s">
-        <v>473</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="F97" t="s">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="G97" t="s">
-        <v>474</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E98" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="G98" t="s">
-        <v>475</v>
+        <v>371</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>483</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="E99" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="F99" t="s">
-        <v>386</v>
+        <v>282</v>
       </c>
       <c r="G99" t="s">
-        <v>476</v>
+        <v>372</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>484</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D100" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="E100" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="F100" t="s">
-        <v>387</v>
+        <v>283</v>
       </c>
       <c r="G100" t="s">
-        <v>477</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E101" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>388</v>
+        <v>284</v>
       </c>
       <c r="G101" t="s">
-        <v>478</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
